--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPC_MC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IPC_MC.XLSX
@@ -130,9 +130,6 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>ANTONIO C S CRUZ</t>
-  </si>
-  <si>
     <t>RAIMUNDO NONATO FERREIRA LIMA</t>
   </si>
   <si>
@@ -148,7 +145,7 @@
     <t> </t>
   </si>
   <si>
-    <t>2453</t>
+    <t> </t>
   </si>
   <si>
     <t>2735</t>
@@ -166,16 +163,19 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>SETOR IPC/MC</t>
   </si>
   <si>
     <t>IPC_MC</t>
   </si>
   <si>
-    <t>ANTONIO C S CRUZ</t>
+    <t>RAIMUNDO NONATO FERREIRA LIMA</t>
   </si>
   <si>
-    <t>Matr.: 2453</t>
+    <t>Matr.: 2735</t>
   </si>
   <si>
     <r>
@@ -3518,20 +3518,20 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>ANTONIO C S CRUZ</v>
+        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
+        <v>PAULO RICARDO DE ARAUJO</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>PAULO RICARDO DE ARAUJO</v>
+        <v>ALAN PAULO DA SILVA BARBOSA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>ALAN PAULO DA SILVA BARBOSA</v>
+        <v> </v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
@@ -3544,21 +3544,21 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>ANTONIO C S CRUZ</v>
+        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
+        <v>PAULO RICARDO DE ARAUJO</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>PAULO RICARDO DE ARAUJO</v>
+        <v>ALAN PAULO DA SILVA BARBOSA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>ALAN PAULO DA SILVA BARBOSA</v>
+        <v> </v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
@@ -3570,19 +3570,19 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>ANTONIO C S CRUZ</v>
+        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
+        <v>PAULO RICARDO DE ARAUJO</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>PAULO RICARDO DE ARAUJO</v>
+        <v>ALAN PAULO DA SILVA BARBOSA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>ALAN PAULO DA SILVA BARBOSA</v>
+        <v> </v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3594,19 +3594,19 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>ANTONIO C S CRUZ</v>
+        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
+        <v>PAULO RICARDO DE ARAUJO</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>PAULO RICARDO DE ARAUJO</v>
+        <v>ALAN PAULO DA SILVA BARBOSA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>ALAN PAULO DA SILVA BARBOSA</v>
+        <v> </v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3898,20 +3898,20 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>2453</v>
+        <v>2735</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>2735</v>
+        <v>3414</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3414</v>
+        <v>3469</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3469</v>
+        <v> </v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
@@ -3924,21 +3924,21 @@
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>2453</v>
+        <v>2735</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>2735</v>
+        <v>3414</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3414</v>
+        <v>3469</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3469</v>
+        <v> </v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
@@ -3950,19 +3950,19 @@
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>2453</v>
+        <v>2735</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>2735</v>
+        <v>3414</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3414</v>
+        <v>3469</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3469</v>
+        <v> </v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3974,19 +3974,19 @@
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>2453</v>
+        <v>2735</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>2735</v>
+        <v>3414</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3414</v>
+        <v>3469</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3469</v>
+        <v> </v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>ANTONIO C S CRUZ</v>
+        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 2453</v>
+        <v>Matr.: 2735</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
@@ -6603,19 +6603,19 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>ANTONIO C S CRUZ</v>
+        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
+        <v>PAULO RICARDO DE ARAUJO</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>PAULO RICARDO DE ARAUJO</v>
+        <v>ALAN PAULO DA SILVA BARBOSA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>ALAN PAULO DA SILVA BARBOSA</v>
+        <v> </v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6627,20 +6627,20 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>ANTONIO C S CRUZ</v>
+        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>RAIMUNDO NONATO FERREIRA LIMA</v>
+        <v>PAULO RICARDO DE ARAUJO</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>PAULO RICARDO DE ARAUJO</v>
+        <v>ALAN PAULO DA SILVA BARBOSA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>ALAN PAULO DA SILVA BARBOSA</v>
+        <v> </v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6935,19 +6935,19 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>2453</v>
+        <v>2735</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2735</v>
+        <v>3414</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3414</v>
+        <v>3469</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3469</v>
+        <v> </v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
@@ -6959,20 +6959,20 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>2453</v>
+        <v>2735</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2735</v>
+        <v>3414</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3414</v>
+        <v>3469</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3469</v>
+        <v> </v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
